--- a/metrics/MAPE/average time/Edema macular diabético.xlsx
+++ b/metrics/MAPE/average time/Edema macular diabético.xlsx
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01140970047852557</v>
+        <v>0.01165119667308848</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01145784970249765</v>
+        <v>0.01129440132280313</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01164194214920086</v>
+        <v>0.01147059214553346</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009722536895648736</v>
+        <v>0.009720115352771929</v>
       </c>
       <c r="C4" t="n">
-        <v>0.009724537359467033</v>
+        <v>0.009716531610552354</v>
       </c>
       <c r="D4" t="n">
-        <v>0.009718237520687255</v>
+        <v>0.009717361965314737</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02891785968706074</v>
+        <v>0.02970078684622307</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02922196381665847</v>
+        <v>0.0298095021958221</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02931500269873991</v>
+        <v>0.02944330415444886</v>
       </c>
     </row>
   </sheetData>
